--- a/biology/Biochimie/Acétyl-coenzyme_A_synthétase/Acétyl-coenzyme_A_synthétase.xlsx
+++ b/biology/Biochimie/Acétyl-coenzyme_A_synthétase/Acétyl-coenzyme_A_synthétase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tyl-coenzyme_A_synth%C3%A9tase</t>
+          <t>Acétyl-coenzyme_A_synthétase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acétyl-CoA synthétase, ou acétate-CoA ligase, est une ligase qui catalyse la réaction :
 acétate + ATP + coenzyme A  
         ⇌
     {\displaystyle \rightleftharpoons }
   acétyl-CoA + AMP + PPi.
-L'acétyl-CoA ainsi formée peut être métabolisée par le cycle de Krebs pour produire de l'énergie et du pouvoir réducteur sous forme d'ATP et de NADH+H+. Il s'agit d'une alternative à la conversion du pyruvate en acétyl-CoA par le complexe pyruvate déshydrogénase : l'enzyme agit dans la matrice mitochondriale, où les produits de sa réaction sont directement utilisables[2]. L'acétyl-CoA peut également être utilisée pour la production d'acides gras par lipogenèse, et la synthétase contribue à ce processus en produisant l'acétyl-CoA nécessaire[3].
-La réaction catalysée par l'acétyl-CoA synthétase se déroule en deux temps. L'AMP se lie d'abord à l'enzyme, ce qui induit un changement de la configuration du site actif qui rend la réaction possible. Un résidu de lysine essentiel à la réaction doit être présent pour permettre la liaison de la coenzyme A. Celle-ci tourne ensuite dans le site actif pour permettre la liaison covalente avec l'atome de carbone central de l'acétate[4]. 
+L'acétyl-CoA ainsi formée peut être métabolisée par le cycle de Krebs pour produire de l'énergie et du pouvoir réducteur sous forme d'ATP et de NADH+H+. Il s'agit d'une alternative à la conversion du pyruvate en acétyl-CoA par le complexe pyruvate déshydrogénase : l'enzyme agit dans la matrice mitochondriale, où les produits de sa réaction sont directement utilisables. L'acétyl-CoA peut également être utilisée pour la production d'acides gras par lipogenèse, et la synthétase contribue à ce processus en produisant l'acétyl-CoA nécessaire.
+La réaction catalysée par l'acétyl-CoA synthétase se déroule en deux temps. L'AMP se lie d'abord à l'enzyme, ce qui induit un changement de la configuration du site actif qui rend la réaction possible. Un résidu de lysine essentiel à la réaction doit être présent pour permettre la liaison de la coenzyme A. Celle-ci tourne ensuite dans le site actif pour permettre la liaison covalente avec l'atome de carbone central de l'acétate. 
 </t>
         </is>
       </c>
